--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/WEST_VIRGINIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/WEST_VIRGINIA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C2">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C14">
@@ -610,12 +610,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C18">
@@ -716,7 +716,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C25">
@@ -856,7 +856,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C35">
@@ -957,7 +957,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C42">
@@ -1325,41 +1325,6 @@
       </c>
       <c r="D67">
         <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/WEST_VIRGINIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/WEST_VIRGINIA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>León</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Rojas De Cuauhtémoc</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Santos Reyes Pápalo</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1175,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1206,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -1219,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1250,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1263,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1276,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -1289,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1302,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
